--- a/Planification-NikolicStefan.xlsx
+++ b/Planification-NikolicStefan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEFAN.NKLC\Documents\PHP\TPI-main-NikolicStefan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEFAN.NKLC\Documents\PHP\TPI-main-NikolicStefan\TPi-main-NikolicStefan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8E8B70-7F15-4674-B632-BE52DAA9AEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CBF9A7-126A-4E2A-AAC3-2B1565190BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,12 +79,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Planification prévisionnel</t>
-  </si>
-  <si>
-    <t>Réalisation de la base de donnée</t>
-  </si>
-  <si>
     <t>Compréhension de l'énoncé</t>
   </si>
   <si>
@@ -97,24 +91,9 @@
     <t xml:space="preserve">Affichage de tous les aliments aléatoirement </t>
   </si>
   <si>
-    <t>Mis à jour des infromations du jeu en cours dans la base de donné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réalisation du défilment aléatotoire des aliments </t>
-  </si>
-  <si>
     <t>Ajout du mode multijoueur (un utilisateur peut rejoindre un jeu en cours)</t>
   </si>
   <si>
-    <t>Incrementation ou diminutation du score selon l'aliment selectionner par rapport à la  categorie</t>
-  </si>
-  <si>
-    <t>Augmentation de la vitesse du défilment du  joueur ayant le score le plus petit</t>
-  </si>
-  <si>
-    <t>Ajout de la fin du jeu si l'utilisateur selectionne un aliment malsain</t>
-  </si>
-  <si>
     <t>Test et rapport des tests</t>
   </si>
   <si>
@@ -127,9 +106,6 @@
     <t>Planification finale</t>
   </si>
   <si>
-    <t>Rendu finale</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réaliser la structure du site </t>
   </si>
   <si>
@@ -139,13 +115,37 @@
     <t>Connexion d'un utilisateur</t>
   </si>
   <si>
-    <t>Suppresion d'un utilisateur</t>
-  </si>
-  <si>
-    <t>Réalisation du font-end du site</t>
-  </si>
-  <si>
     <t>Résumé du TPI</t>
+  </si>
+  <si>
+    <t>Planification prévisionnelle</t>
+  </si>
+  <si>
+    <t>Réalisation de la base de données</t>
+  </si>
+  <si>
+    <t>Suppression d'un utilisateur</t>
+  </si>
+  <si>
+    <t>Réalisation due défilme aléatoire des aliments</t>
+  </si>
+  <si>
+    <t>Incrementation ou diminution du score selon l'aliment sélectionnait par rapport à la  catégorie</t>
+  </si>
+  <si>
+    <t>Ajout de la fin du jeu si l'utilisateur sélectionne un aliment malsain</t>
+  </si>
+  <si>
+    <t>Mettre à jour des informations du jeu en cours dans la base de donné</t>
+  </si>
+  <si>
+    <t>Réalisation du front-end du site</t>
+  </si>
+  <si>
+    <t>Rendu final</t>
+  </si>
+  <si>
+    <t>Augmentation de la vitesse du défilment des aliments du  joueur ayant le score le plus petit</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -466,9 +466,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,7 +810,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -882,7 +879,7 @@
     </row>
     <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="16">
         <v>2.0833333333333332E-2</v>
@@ -907,7 +904,7 @@
     </row>
     <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B3" s="20">
         <v>0.125</v>
@@ -932,7 +929,7 @@
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="20">
         <v>0.78472222222222221</v>
@@ -977,7 +974,7 @@
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B5" s="20">
         <v>6.25E-2</v>
@@ -1002,7 +999,7 @@
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" s="25">
         <v>5.5555555555555552E-2</v>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B7" s="25">
         <v>7.6388888888888895E-2</v>
@@ -1051,8 +1048,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="25">
         <v>6.25E-2</v>
@@ -1076,8 +1073,8 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>34</v>
+      <c r="A9" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="25">
         <v>4.1666666666666664E-2</v>
@@ -1102,7 +1099,7 @@
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1127,7 +1124,7 @@
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="25">
         <v>9.7222222222222224E-2</v>
@@ -1152,7 +1149,7 @@
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B12" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1177,7 +1174,7 @@
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B13" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1202,7 +1199,7 @@
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B14" s="20">
         <v>0.125</v>
@@ -1227,7 +1224,7 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B15" s="25">
         <v>0.1388888888888889</v>
@@ -1252,7 +1249,7 @@
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" s="25">
         <v>0.79166666666666663</v>
@@ -1283,7 +1280,7 @@
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B17" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1307,8 +1304,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>35</v>
+      <c r="A18" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B18" s="25">
         <v>0.15972222222222224</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19" s="25">
         <v>0.52777777777777779</v>
@@ -1380,7 +1377,7 @@
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B20" s="25">
         <v>6.25E-2</v>
@@ -1405,7 +1402,7 @@
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B21" s="25">
         <v>6.25E-2</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B22" s="25">
         <v>7.6388888888888895E-2</v>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B23" s="25">
         <v>6.25E-2</v>
@@ -1499,8 +1496,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>30</v>
+      <c r="A24" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="12"/>
